--- a/Columnas y Variables.xlsx
+++ b/Columnas y Variables.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Columnas y Variables" sheetId="1" r:id="rId1"/>
+    <sheet name="Columnas" sheetId="2" r:id="rId1"/>
+    <sheet name="Variables" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
   <si>
     <t>Binaria</t>
   </si>
@@ -32,9 +33,6 @@
     <t>Variable Dependiente</t>
   </si>
   <si>
-    <t>CONVERSION</t>
-  </si>
-  <si>
     <t>Variable Predictiva</t>
   </si>
   <si>
@@ -68,59 +66,152 @@
     <t>PAGE</t>
   </si>
   <si>
-    <t>Valor</t>
-  </si>
-  <si>
     <t>Hora</t>
   </si>
   <si>
     <t>Estacionalidad</t>
   </si>
   <si>
-    <t>Día</t>
-  </si>
-  <si>
     <t>Mes</t>
   </si>
   <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>ROL HOLT-WINTERS</t>
+  </si>
+  <si>
+    <t>COLUMNA</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>PK solamente</t>
+  </si>
+  <si>
+    <t>Predictiva / Dependiente</t>
+  </si>
+  <si>
+    <t>device_data.csv</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>CANTIDAD VALORES</t>
+  </si>
+  <si>
+    <t>TIPO DATO</t>
+  </si>
+  <si>
+    <t>TABLA ORIGEN</t>
+  </si>
+  <si>
+    <t>conversiones.csv</t>
+  </si>
+  <si>
+    <t>Anio</t>
+  </si>
+  <si>
+    <t>pageviews.csv</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>DiaMes</t>
+  </si>
+  <si>
+    <t>DiaSemana</t>
+  </si>
+  <si>
+    <t>COLUMNA DE ORIGEN</t>
+  </si>
+  <si>
+    <t>FEC_EVENT</t>
+  </si>
+  <si>
     <t>Tendencia</t>
   </si>
   <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>FEC_EVENT</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>ROL HOLT-WINTERS</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>COLUMNA</t>
-  </si>
-  <si>
-    <t>N°</t>
-  </si>
-  <si>
-    <t>Fecha</t>
+    <t>Mes_Ord</t>
+  </si>
+  <si>
+    <t>CONNECTION_SPEED_Avg</t>
+  </si>
+  <si>
+    <t>IS_MOBILE_DEVICE_Avg</t>
+  </si>
+  <si>
+    <t>PAGE_Ord_Avg</t>
+  </si>
+  <si>
+    <t>CONTENT_CATEGORY_Ord_Avg</t>
+  </si>
+  <si>
+    <t>CONTENT_CATEGORY_TOP_Ord_Avg</t>
+  </si>
+  <si>
+    <t>CONTENT_CATEGORY_BOTTOM_Ord_Avg</t>
+  </si>
+  <si>
+    <t>SITE_ID_Ord_Avg</t>
+  </si>
+  <si>
+    <t>ON_SITE_SEARCH_TERM_Ord_Avg</t>
+  </si>
+  <si>
+    <t>COLUMNAS ORIGINALES</t>
+  </si>
+  <si>
+    <t>device_data.csv y pageviews.csv</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>DiaMes_Ord_Avg</t>
+  </si>
+  <si>
+    <t>DiaSemana_Ord_Avg</t>
+  </si>
+  <si>
+    <t>Hora_Ord_Avg</t>
+  </si>
+  <si>
+    <t>VARIABLE AGREGADA</t>
+  </si>
+  <si>
+    <t>VARIABLE ORIGINAL</t>
+  </si>
+  <si>
+    <t>TIPO VARIABLE ORIGINAL</t>
+  </si>
+  <si>
+    <t>ASIGNADO A</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>Vero</t>
+  </si>
+  <si>
+    <t>Lautaro</t>
+  </si>
+  <si>
+    <t>Vicky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +223,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,12 +262,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,258 +556,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10496454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
